--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -434,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>65.1331678157292</v>
+        <v>67.743757505466</v>
       </c>
       <c r="C2" t="n">
-        <v>63.5600143407196</v>
+        <v>66.3506470352456</v>
       </c>
       <c r="D2" t="n">
-        <v>66.7063212907388</v>
+        <v>69.1368679756863</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -451,13 +454,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>63.7100261097043</v>
+        <v>63.7090727869478</v>
       </c>
       <c r="C3" t="n">
-        <v>61.4119355415078</v>
+        <v>61.4112603306534</v>
       </c>
       <c r="D3" t="n">
-        <v>66.0081166779008</v>
+        <v>66.0068852432422</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -468,13 +471,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>61.4199721014981</v>
+        <v>61.4182909048096</v>
       </c>
       <c r="C4" t="n">
-        <v>55.6153000170659</v>
+        <v>55.6164787213795</v>
       </c>
       <c r="D4" t="n">
-        <v>67.2246441859303</v>
+        <v>67.2201030882396</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -485,13 +488,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>61.5114308256678</v>
+        <v>61.508139700003</v>
       </c>
       <c r="C5" t="n">
-        <v>56.4638497767679</v>
+        <v>56.4625449826066</v>
       </c>
       <c r="D5" t="n">
-        <v>66.5590118745677</v>
+        <v>66.5537344173994</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -570,13 +573,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>55.7945158402345</v>
+        <v>55.7958537233305</v>
       </c>
       <c r="C10" t="n">
-        <v>47.8061865840628</v>
+        <v>47.8038406643897</v>
       </c>
       <c r="D10" t="n">
-        <v>63.7828450964062</v>
+        <v>63.7878667822712</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -587,13 +590,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>68.0394528982894</v>
+        <v>68.0456966371417</v>
       </c>
       <c r="C11" t="n">
-        <v>64.5023278258959</v>
+        <v>64.5090574245863</v>
       </c>
       <c r="D11" t="n">
-        <v>71.5765779706829</v>
+        <v>71.5823358496971</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -604,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>87.6159556077524</v>
+        <v>73.9479366625681</v>
       </c>
       <c r="C12" t="n">
-        <v>82.8022441188871</v>
+        <v>70.0713855693462</v>
       </c>
       <c r="D12" t="n">
-        <v>92.4296670966177</v>
+        <v>77.8244877557899</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>61.5114055904206</v>
+        <v>87.6159556077524</v>
       </c>
       <c r="C13" t="n">
-        <v>58.4855462691326</v>
+        <v>84.6863938433658</v>
       </c>
       <c r="D13" t="n">
-        <v>64.5372649117086</v>
+        <v>90.545517372139</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>56.2522979936495</v>
+        <v>61.5641165476348</v>
       </c>
       <c r="C14" t="n">
-        <v>55.2975080712283</v>
+        <v>58.5387567484484</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2070879160708</v>
+        <v>64.5894763468211</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>61.2719452998768</v>
+        <v>57.143579858508</v>
       </c>
       <c r="C15" t="n">
-        <v>59.9216508427032</v>
+        <v>56.2584506667722</v>
       </c>
       <c r="D15" t="n">
-        <v>62.6222397570504</v>
+        <v>58.0287090502438</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>60.5290681386294</v>
+        <v>61.2718315250945</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1356325193814</v>
+        <v>59.9217220818615</v>
       </c>
       <c r="D16" t="n">
-        <v>63.9225037578775</v>
+        <v>62.6219409683275</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>56.4293349046236</v>
+        <v>60.5229639210431</v>
       </c>
       <c r="C17" t="n">
-        <v>53.4258579039897</v>
+        <v>57.1311325324667</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4328119052576</v>
+        <v>63.9147953096195</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>74.4489025556534</v>
+        <v>56.435025728565</v>
       </c>
       <c r="C18" t="n">
-        <v>71.3378414278401</v>
+        <v>53.4330926038147</v>
       </c>
       <c r="D18" t="n">
-        <v>77.5599636834666</v>
+        <v>59.4369588533153</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>50.6935542872362</v>
+        <v>74.4489025556534</v>
       </c>
       <c r="C19" t="n">
-        <v>46.3091660983591</v>
+        <v>71.3378414278401</v>
       </c>
       <c r="D19" t="n">
-        <v>55.0779424761133</v>
+        <v>77.5599636834666</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.1960152413415</v>
+        <v>50.6935542872362</v>
       </c>
       <c r="C20" t="n">
-        <v>64.4757824769946</v>
+        <v>46.3091660983591</v>
       </c>
       <c r="D20" t="n">
-        <v>71.9162480056884</v>
+        <v>55.0779424761133</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>57.5331257319554</v>
+        <v>68.1960152413415</v>
       </c>
       <c r="C21" t="n">
-        <v>54.1602118742019</v>
+        <v>64.4757824769946</v>
       </c>
       <c r="D21" t="n">
-        <v>60.9060395897089</v>
+        <v>71.9162480056884</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>61.0877821309218</v>
+        <v>57.5331257319554</v>
       </c>
       <c r="C22" t="n">
-        <v>56.670599702984</v>
+        <v>54.1602118742019</v>
       </c>
       <c r="D22" t="n">
-        <v>65.5049645588597</v>
+        <v>60.9060395897089</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>53.5087509520014</v>
+        <v>61.0961351837521</v>
       </c>
       <c r="C23" t="n">
-        <v>51.3223001591498</v>
+        <v>56.6769147666724</v>
       </c>
       <c r="D23" t="n">
-        <v>55.6952017448531</v>
+        <v>65.5153556008318</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>84.6428606188793</v>
+        <v>53.5094088553599</v>
       </c>
       <c r="C24" t="n">
-        <v>80.9692503992371</v>
+        <v>51.3229600915886</v>
       </c>
       <c r="D24" t="n">
-        <v>88.3164708385215</v>
+        <v>55.6958576191312</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>46.2093337994977</v>
+        <v>49.0282605200155</v>
       </c>
       <c r="C25" t="n">
-        <v>44.4249914901988</v>
+        <v>45.9391242216732</v>
       </c>
       <c r="D25" t="n">
-        <v>47.9936761087967</v>
+        <v>52.1173968183578</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>64.998109274079</v>
+        <v>84.6428606188793</v>
       </c>
       <c r="C26" t="n">
-        <v>63.1730203590619</v>
+        <v>82.4071495544298</v>
       </c>
       <c r="D26" t="n">
-        <v>66.823198189096</v>
+        <v>86.8785716833287</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>66.4591627081209</v>
+        <v>46.2409748207505</v>
       </c>
       <c r="C27" t="n">
-        <v>63.8966492418163</v>
+        <v>44.4565467719796</v>
       </c>
       <c r="D27" t="n">
-        <v>69.0216761744256</v>
+        <v>48.0254028695214</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>70.6184035166313</v>
+        <v>65.5703163437477</v>
       </c>
       <c r="C28" t="n">
-        <v>64.5453164329789</v>
+        <v>63.869397228253</v>
       </c>
       <c r="D28" t="n">
-        <v>76.6914906002837</v>
+        <v>67.2712354592425</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.1768279054714</v>
+        <v>66.4568029277883</v>
       </c>
       <c r="C29" t="n">
-        <v>56.4857581967681</v>
+        <v>63.8947148531786</v>
       </c>
       <c r="D29" t="n">
-        <v>67.8678976141746</v>
+        <v>69.018891002398</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>82.0729293563814</v>
+        <v>70.6080094776538</v>
       </c>
       <c r="C30" t="n">
-        <v>76.5582494117215</v>
+        <v>64.5378436477979</v>
       </c>
       <c r="D30" t="n">
-        <v>87.5876093010413</v>
+        <v>76.6781753075097</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>58.4933323459008</v>
+        <v>62.1718364193115</v>
       </c>
       <c r="C31" t="n">
-        <v>50.1555182032516</v>
+        <v>56.4841567790445</v>
       </c>
       <c r="D31" t="n">
-        <v>66.8311464885499</v>
+        <v>67.8595160595785</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>69.5763306606468</v>
+        <v>82.0729293563814</v>
       </c>
       <c r="C32" t="n">
-        <v>62.4634447024593</v>
+        <v>76.5582494117215</v>
       </c>
       <c r="D32" t="n">
-        <v>76.6892166188343</v>
+        <v>87.5876093010413</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>58.7415395197149</v>
+        <v>58.4933323459008</v>
       </c>
       <c r="C33" t="n">
-        <v>51.9400339783796</v>
+        <v>50.1555182032516</v>
       </c>
       <c r="D33" t="n">
-        <v>65.5430450610502</v>
+        <v>66.8311464885499</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>62.4541420167265</v>
+        <v>69.5763306606468</v>
       </c>
       <c r="C34" t="n">
-        <v>53.8270540570508</v>
+        <v>62.4634447024593</v>
       </c>
       <c r="D34" t="n">
-        <v>71.0812299764023</v>
+        <v>76.6892166188343</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>65.7842931103845</v>
+        <v>58.7415395197149</v>
       </c>
       <c r="C35" t="n">
-        <v>61.64347129443</v>
+        <v>51.9400339783796</v>
       </c>
       <c r="D35" t="n">
-        <v>69.9251149263389</v>
+        <v>65.5430450610502</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>87.221912376435</v>
+        <v>62.4584030022536</v>
       </c>
       <c r="C36" t="n">
-        <v>80.3085292915389</v>
+        <v>53.8271436275199</v>
       </c>
       <c r="D36" t="n">
-        <v>94.1352954613311</v>
+        <v>71.0896623769874</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>59.0581324425086</v>
+        <v>65.7855461090773</v>
       </c>
       <c r="C37" t="n">
-        <v>55.4748479165178</v>
+        <v>61.6450425806537</v>
       </c>
       <c r="D37" t="n">
-        <v>62.6414169684994</v>
+        <v>69.9260496375009</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>65.9964433707113</v>
+        <v>57.4023186983701</v>
       </c>
       <c r="C38" t="n">
-        <v>64.1288407890723</v>
+        <v>50.865521479853</v>
       </c>
       <c r="D38" t="n">
-        <v>67.8640459523504</v>
+        <v>63.9391159168873</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>69.6654880937681</v>
+        <v>87.221912376435</v>
       </c>
       <c r="C39" t="n">
-        <v>67.0785750137077</v>
+        <v>83.0145179792185</v>
       </c>
       <c r="D39" t="n">
-        <v>72.2524011738286</v>
+        <v>91.4293067736515</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>72.5390214988976</v>
+        <v>59.0506210487045</v>
       </c>
       <c r="C40" t="n">
-        <v>66.253854348713</v>
+        <v>55.4662909796374</v>
       </c>
       <c r="D40" t="n">
-        <v>78.8241886490822</v>
+        <v>62.6349511177717</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.2101280571611</v>
+        <v>67.0776378937854</v>
       </c>
       <c r="C41" t="n">
-        <v>65.4582941317994</v>
+        <v>65.367656584582</v>
       </c>
       <c r="D41" t="n">
-        <v>76.9619619825229</v>
+        <v>68.7876192029888</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>76.9962787140821</v>
+        <v>69.6665548296032</v>
       </c>
       <c r="C42" t="n">
-        <v>71.3255773772501</v>
+        <v>67.0799542803843</v>
       </c>
       <c r="D42" t="n">
-        <v>82.666980050914</v>
+        <v>72.2531553788221</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>44.9623695362666</v>
+        <v>72.5311106050605</v>
       </c>
       <c r="C43" t="n">
-        <v>34.9435947318987</v>
+        <v>66.2485665017016</v>
       </c>
       <c r="D43" t="n">
-        <v>54.9811443406344</v>
+        <v>78.8136547084194</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>77.3647293408491</v>
+        <v>71.2137634530066</v>
       </c>
       <c r="C44" t="n">
-        <v>70.4882200080317</v>
+        <v>65.4643903421818</v>
       </c>
       <c r="D44" t="n">
-        <v>84.2412386736664</v>
+        <v>76.9631365638314</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>66.1571537110524</v>
+        <v>76.9962787140821</v>
       </c>
       <c r="C45" t="n">
-        <v>59.8086496546993</v>
+        <v>71.3255773772501</v>
       </c>
       <c r="D45" t="n">
-        <v>72.5056577674056</v>
+        <v>82.666980050914</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>65.5064271992628</v>
+        <v>44.9623695362666</v>
       </c>
       <c r="C46" t="n">
-        <v>56.7556475904091</v>
+        <v>34.9435947318987</v>
       </c>
       <c r="D46" t="n">
-        <v>74.2572068081165</v>
+        <v>54.9811443406344</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>66.0490185589346</v>
+        <v>77.3647293408491</v>
       </c>
       <c r="C47" t="n">
-        <v>61.833921675686</v>
+        <v>70.4882200080317</v>
       </c>
       <c r="D47" t="n">
-        <v>70.2641154421831</v>
+        <v>84.2412386736664</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>86.9268829131095</v>
+        <v>66.1571537110524</v>
       </c>
       <c r="C48" t="n">
-        <v>80.1448661853352</v>
+        <v>59.8086496546993</v>
       </c>
       <c r="D48" t="n">
-        <v>93.7088996408838</v>
+        <v>72.5056577674056</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>56.4374209111599</v>
+        <v>65.5119739559894</v>
       </c>
       <c r="C49" t="n">
-        <v>52.7004927466252</v>
+        <v>56.7571317883134</v>
       </c>
       <c r="D49" t="n">
-        <v>60.1743490756945</v>
+        <v>74.2668161236654</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>69.6871958258429</v>
+        <v>66.0462238932292</v>
       </c>
       <c r="C50" t="n">
-        <v>67.9433405258822</v>
+        <v>61.8309139135378</v>
       </c>
       <c r="D50" t="n">
-        <v>71.4310511258036</v>
+        <v>70.2615338729206</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>72.1412193491473</v>
+        <v>65.0096120734851</v>
       </c>
       <c r="C51" t="n">
-        <v>69.677682750766</v>
+        <v>59.2888510346365</v>
       </c>
       <c r="D51" t="n">
-        <v>74.6047559475286</v>
+        <v>70.7303731123336</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>69.5237690119533</v>
+        <v>86.9268829131095</v>
       </c>
       <c r="C52" t="n">
-        <v>62.9673505614508</v>
+        <v>82.7994363602624</v>
       </c>
       <c r="D52" t="n">
-        <v>76.0801874624558</v>
+        <v>91.0543294659567</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>76.6655399656019</v>
+        <v>56.4471139916675</v>
       </c>
       <c r="C53" t="n">
-        <v>71.5988500026748</v>
+        <v>52.7089694101975</v>
       </c>
       <c r="D53" t="n">
-        <v>81.7322299285291</v>
+        <v>60.1852585731374</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>81.607480500695</v>
+        <v>69.9386659985672</v>
       </c>
       <c r="C54" t="n">
-        <v>75.8704411128065</v>
+        <v>68.3222035283627</v>
       </c>
       <c r="D54" t="n">
-        <v>87.3445198885835</v>
+        <v>71.5551284687717</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.7546358372171</v>
+        <v>72.1413472052391</v>
       </c>
       <c r="C55" t="n">
-        <v>64.5110128519884</v>
+        <v>69.6781594092405</v>
       </c>
       <c r="D55" t="n">
-        <v>78.9982588224459</v>
+        <v>74.6045350012377</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>73.3404751909535</v>
+        <v>69.5116608460088</v>
       </c>
       <c r="C56" t="n">
-        <v>65.9571311121727</v>
+        <v>62.9573283151603</v>
       </c>
       <c r="D56" t="n">
-        <v>80.7238192697343</v>
+        <v>76.0659933768572</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>60.2940699764367</v>
+        <v>76.669867600639</v>
       </c>
       <c r="C57" t="n">
-        <v>54.0345140400979</v>
+        <v>71.6065064651151</v>
       </c>
       <c r="D57" t="n">
-        <v>66.5536259127755</v>
+        <v>81.7332287361629</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.7665642496298</v>
+        <v>81.607480500695</v>
       </c>
       <c r="C58" t="n">
-        <v>66.7556481182441</v>
+        <v>75.8704411128065</v>
       </c>
       <c r="D58" t="n">
-        <v>82.7774803810155</v>
+        <v>87.3445198885835</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>70.6704621820342</v>
+        <v>71.7546358372171</v>
       </c>
       <c r="C59" t="n">
-        <v>66.6439880772612</v>
+        <v>64.5110128519884</v>
       </c>
       <c r="D59" t="n">
-        <v>74.6969362868072</v>
+        <v>78.9982588224459</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>90.2500167508645</v>
+        <v>73.3404751909535</v>
       </c>
       <c r="C60" t="n">
-        <v>84.2254414260938</v>
+        <v>65.9571311121727</v>
       </c>
       <c r="D60" t="n">
-        <v>96.2745920756352</v>
+        <v>80.7238192697343</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>62.8639052952767</v>
+        <v>60.2940699764367</v>
       </c>
       <c r="C61" t="n">
-        <v>59.5357393986439</v>
+        <v>54.0345140400979</v>
       </c>
       <c r="D61" t="n">
-        <v>66.1920711919095</v>
+        <v>66.5536259127755</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>63.0857006483617</v>
+        <v>74.7720101818334</v>
       </c>
       <c r="C62" t="n">
-        <v>61.2294959923264</v>
+        <v>66.7572571600945</v>
       </c>
       <c r="D62" t="n">
-        <v>64.941905304397</v>
+        <v>82.7867632035724</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>67.347873456368</v>
+        <v>70.6887424543744</v>
       </c>
       <c r="C63" t="n">
-        <v>64.698437268154</v>
+        <v>66.6619387248777</v>
       </c>
       <c r="D63" t="n">
-        <v>69.9973096445819</v>
+        <v>74.715546183871</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>61.6509169994023</v>
+        <v>59.9824817326242</v>
       </c>
       <c r="C64" t="n">
-        <v>54.8233767638597</v>
+        <v>54.0493281813875</v>
       </c>
       <c r="D64" t="n">
-        <v>68.4784572349448</v>
+        <v>65.9156352838609</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>66.3594997753722</v>
+        <v>90.2500167508645</v>
       </c>
       <c r="C65" t="n">
-        <v>60.5978564734455</v>
+        <v>86.5835391152729</v>
       </c>
       <c r="D65" t="n">
-        <v>72.1211430772989</v>
+        <v>93.9164943864561</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>80.3679928025395</v>
+        <v>62.931055719428</v>
       </c>
       <c r="C66" t="n">
-        <v>74.5550595199882</v>
+        <v>59.6052390087678</v>
       </c>
       <c r="D66" t="n">
-        <v>86.1809260850908</v>
+        <v>66.2568724300882</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>55.5068408144557</v>
+        <v>63.5261912273936</v>
       </c>
       <c r="C67" t="n">
-        <v>46.5879499902417</v>
+        <v>61.8067176753898</v>
       </c>
       <c r="D67" t="n">
-        <v>64.4257316386698</v>
+        <v>65.2456647793974</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>75.7028075570561</v>
+        <v>67.3481808319863</v>
       </c>
       <c r="C68" t="n">
-        <v>68.9992065445205</v>
+        <v>64.6990502482674</v>
       </c>
       <c r="D68" t="n">
-        <v>82.4064085695917</v>
+        <v>69.9973114157052</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.3276502237063</v>
+        <v>61.6517882070384</v>
       </c>
       <c r="C69" t="n">
-        <v>59.2780379715418</v>
+        <v>54.8274635012244</v>
       </c>
       <c r="D69" t="n">
-        <v>73.3772624758709</v>
+        <v>68.4761129128525</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>61.3583813050965</v>
+        <v>66.3574699020839</v>
       </c>
       <c r="C70" t="n">
-        <v>52.4912025824176</v>
+        <v>60.5978872217525</v>
       </c>
       <c r="D70" t="n">
-        <v>70.2255600277754</v>
+        <v>72.1170525824154</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>62.0730746384692</v>
+        <v>80.3679928025395</v>
       </c>
       <c r="C71" t="n">
-        <v>57.873405786927</v>
+        <v>74.5550595199882</v>
       </c>
       <c r="D71" t="n">
-        <v>66.2727434900113</v>
+        <v>86.1809260850908</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>86.738133326359</v>
+        <v>55.5068408144557</v>
       </c>
       <c r="C72" t="n">
-        <v>79.7739196879907</v>
+        <v>46.5879499902417</v>
       </c>
       <c r="D72" t="n">
-        <v>93.7023469647273</v>
+        <v>64.4257316386698</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>75.7028075570561</v>
+      </c>
+      <c r="C73" t="n">
+        <v>68.9992065445205</v>
+      </c>
+      <c r="D73" t="n">
+        <v>82.4064085695917</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.3276502237063</v>
+      </c>
+      <c r="C74" t="n">
+        <v>59.2780379715418</v>
+      </c>
+      <c r="D74" t="n">
+        <v>73.3772624758709</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>61.3698301112097</v>
+      </c>
+      <c r="C75" t="n">
+        <v>52.499183200304</v>
+      </c>
+      <c r="D75" t="n">
+        <v>70.2404770221153</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>62.0796236082796</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.8809984969625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>66.2782487195967</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>53.7620885060961</v>
+      </c>
+      <c r="C77" t="n">
+        <v>47.6649191988101</v>
+      </c>
+      <c r="D77" t="n">
+        <v>59.8592578133821</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
-        <v>54.4823400771683</v>
-      </c>
-      <c r="C73" t="n">
-        <v>51.0023939235266</v>
-      </c>
-      <c r="D73" t="n">
-        <v>57.96228623081</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="B78" t="n">
+        <v>86.738133326359</v>
+      </c>
+      <c r="C78" t="n">
+        <v>82.4998041200541</v>
+      </c>
+      <c r="D78" t="n">
+        <v>90.9764625326639</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
+        <v>54.5472800947686</v>
+      </c>
+      <c r="C79" t="n">
+        <v>51.068438000582</v>
+      </c>
+      <c r="D79" t="n">
+        <v>58.0261221889552</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -437,13 +434,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.743757505466</v>
+        <v>67.7141238034429</v>
       </c>
       <c r="C2" t="n">
-        <v>66.3506470352456</v>
+        <v>66.3199823934184</v>
       </c>
       <c r="D2" t="n">
-        <v>69.1368679756863</v>
+        <v>69.1082652134675</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -607,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>73.9479366625681</v>
+        <v>73.7408625356203</v>
       </c>
       <c r="C12" t="n">
-        <v>70.0713855693462</v>
+        <v>69.8372337831187</v>
       </c>
       <c r="D12" t="n">
-        <v>77.8244877557899</v>
+        <v>77.644491288122</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -624,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>87.6159556077524</v>
+        <v>61.5641165476348</v>
       </c>
       <c r="C13" t="n">
-        <v>84.6863938433658</v>
+        <v>58.5387567484484</v>
       </c>
       <c r="D13" t="n">
-        <v>90.545517372139</v>
+        <v>64.5894763468211</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -638,220 +635,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57.1493326995844</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.2639971508514</v>
+      </c>
+      <c r="D14" t="n">
+        <v>58.0346682483174</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>61.5641165476348</v>
-      </c>
-      <c r="C14" t="n">
-        <v>58.5387567484484</v>
-      </c>
-      <c r="D14" t="n">
-        <v>64.5894763468211</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>57.143579858508</v>
+        <v>61.2718315250945</v>
       </c>
       <c r="C15" t="n">
-        <v>56.2584506667722</v>
+        <v>59.9217220818615</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0287090502438</v>
+        <v>62.6219409683275</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>61.2718315250945</v>
+        <v>60.5229639210431</v>
       </c>
       <c r="C16" t="n">
-        <v>59.9217220818615</v>
+        <v>57.1311325324667</v>
       </c>
       <c r="D16" t="n">
-        <v>62.6219409683275</v>
+        <v>63.9147953096195</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>60.5229639210431</v>
+        <v>56.435025728565</v>
       </c>
       <c r="C17" t="n">
-        <v>57.1311325324667</v>
+        <v>53.4330926038147</v>
       </c>
       <c r="D17" t="n">
-        <v>63.9147953096195</v>
+        <v>59.4369588533153</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>56.435025728565</v>
+        <v>74.4489025556534</v>
       </c>
       <c r="C18" t="n">
-        <v>53.4330926038147</v>
+        <v>71.3378414278401</v>
       </c>
       <c r="D18" t="n">
-        <v>59.4369588533153</v>
+        <v>77.5599636834666</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>74.4489025556534</v>
+        <v>50.6935542872362</v>
       </c>
       <c r="C19" t="n">
-        <v>71.3378414278401</v>
+        <v>46.3091660983591</v>
       </c>
       <c r="D19" t="n">
-        <v>77.5599636834666</v>
+        <v>55.0779424761133</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>50.6935542872362</v>
+        <v>68.1960152413415</v>
       </c>
       <c r="C20" t="n">
-        <v>46.3091660983591</v>
+        <v>64.4757824769946</v>
       </c>
       <c r="D20" t="n">
-        <v>55.0779424761133</v>
+        <v>71.9162480056884</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>68.1960152413415</v>
+        <v>57.5331257319554</v>
       </c>
       <c r="C21" t="n">
-        <v>64.4757824769946</v>
+        <v>54.1602118742019</v>
       </c>
       <c r="D21" t="n">
-        <v>71.9162480056884</v>
+        <v>60.9060395897089</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>57.5331257319554</v>
+        <v>61.0961351837521</v>
       </c>
       <c r="C22" t="n">
-        <v>54.1602118742019</v>
+        <v>56.6769147666724</v>
       </c>
       <c r="D22" t="n">
-        <v>60.9060395897089</v>
+        <v>65.5153556008318</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>61.0961351837521</v>
+        <v>53.5094088553599</v>
       </c>
       <c r="C23" t="n">
-        <v>56.6769147666724</v>
+        <v>51.3229600915886</v>
       </c>
       <c r="D23" t="n">
-        <v>65.5153556008318</v>
+        <v>55.6958576191312</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>53.5094088553599</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="C24" t="n">
-        <v>51.3229600915886</v>
+        <v>45.9501848091362</v>
       </c>
       <c r="D24" t="n">
-        <v>55.6958576191312</v>
+        <v>52.1470129982428</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>49.0282605200155</v>
+        <v>46.2409748207505</v>
       </c>
       <c r="C25" t="n">
-        <v>45.9391242216732</v>
+        <v>44.4565467719796</v>
       </c>
       <c r="D25" t="n">
-        <v>52.1173968183578</v>
+        <v>48.0254028695214</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>84.6428606188793</v>
+        <v>65.5718008202262</v>
       </c>
       <c r="C26" t="n">
-        <v>82.4071495544298</v>
+        <v>63.8708625481235</v>
       </c>
       <c r="D26" t="n">
-        <v>86.8785716833287</v>
+        <v>67.2727390923289</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -859,16 +856,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>46.2409748207505</v>
+        <v>66.4568029277883</v>
       </c>
       <c r="C27" t="n">
-        <v>44.4565467719796</v>
+        <v>63.8947148531786</v>
       </c>
       <c r="D27" t="n">
-        <v>48.0254028695214</v>
+        <v>69.018891002398</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -876,186 +873,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>65.5703163437477</v>
+        <v>70.6080094776538</v>
       </c>
       <c r="C28" t="n">
-        <v>63.869397228253</v>
+        <v>64.5378436477979</v>
       </c>
       <c r="D28" t="n">
-        <v>67.2712354592425</v>
+        <v>76.6781753075097</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>66.4568029277883</v>
+        <v>62.1718364193115</v>
       </c>
       <c r="C29" t="n">
-        <v>63.8947148531786</v>
+        <v>56.4841567790445</v>
       </c>
       <c r="D29" t="n">
-        <v>69.018891002398</v>
+        <v>67.8595160595785</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>70.6080094776538</v>
+        <v>82.0729293563814</v>
       </c>
       <c r="C30" t="n">
-        <v>64.5378436477979</v>
+        <v>76.5582494117215</v>
       </c>
       <c r="D30" t="n">
-        <v>76.6781753075097</v>
+        <v>87.5876093010413</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>62.1718364193115</v>
+        <v>58.4933323459008</v>
       </c>
       <c r="C31" t="n">
-        <v>56.4841567790445</v>
+        <v>50.1555182032516</v>
       </c>
       <c r="D31" t="n">
-        <v>67.8595160595785</v>
+        <v>66.8311464885499</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>82.0729293563814</v>
+        <v>69.5763306606468</v>
       </c>
       <c r="C32" t="n">
-        <v>76.5582494117215</v>
+        <v>62.4634447024593</v>
       </c>
       <c r="D32" t="n">
-        <v>87.5876093010413</v>
+        <v>76.6892166188343</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>58.4933323459008</v>
+        <v>58.7415395197149</v>
       </c>
       <c r="C33" t="n">
-        <v>50.1555182032516</v>
+        <v>51.9400339783796</v>
       </c>
       <c r="D33" t="n">
-        <v>66.8311464885499</v>
+        <v>65.5430450610502</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>69.5763306606468</v>
+        <v>62.4584030022536</v>
       </c>
       <c r="C34" t="n">
-        <v>62.4634447024593</v>
+        <v>53.8271436275199</v>
       </c>
       <c r="D34" t="n">
-        <v>76.6892166188343</v>
+        <v>71.0896623769874</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>58.7415395197149</v>
+        <v>65.7855461090773</v>
       </c>
       <c r="C35" t="n">
-        <v>51.9400339783796</v>
+        <v>61.6450425806537</v>
       </c>
       <c r="D35" t="n">
-        <v>65.5430450610502</v>
+        <v>69.9260496375009</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>62.4584030022536</v>
+        <v>57.4177151942162</v>
       </c>
       <c r="C36" t="n">
-        <v>53.8271436275199</v>
+        <v>50.8793137207413</v>
       </c>
       <c r="D36" t="n">
-        <v>71.0896623769874</v>
+        <v>63.9561166676911</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>65.7855461090773</v>
+        <v>59.0506210487045</v>
       </c>
       <c r="C37" t="n">
-        <v>61.6450425806537</v>
+        <v>55.4662909796374</v>
       </c>
       <c r="D37" t="n">
-        <v>69.9260496375009</v>
+        <v>62.6349511177717</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>57.4023186983701</v>
+        <v>67.0368601571222</v>
       </c>
       <c r="C38" t="n">
-        <v>50.865521479853</v>
+        <v>65.3252960128017</v>
       </c>
       <c r="D38" t="n">
-        <v>63.9391159168873</v>
+        <v>68.7484243014427</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1063,16 +1060,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>87.221912376435</v>
+        <v>69.6665548296032</v>
       </c>
       <c r="C39" t="n">
-        <v>83.0145179792185</v>
+        <v>67.0799542803843</v>
       </c>
       <c r="D39" t="n">
-        <v>91.4293067736515</v>
+        <v>72.2531553788221</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1080,16 +1077,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>59.0506210487045</v>
+        <v>72.5311106050605</v>
       </c>
       <c r="C40" t="n">
-        <v>55.4662909796374</v>
+        <v>66.2485665017016</v>
       </c>
       <c r="D40" t="n">
-        <v>62.6349511177717</v>
+        <v>78.8136547084194</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1097,169 +1094,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>67.0776378937854</v>
+        <v>71.2137634530066</v>
       </c>
       <c r="C41" t="n">
-        <v>65.367656584582</v>
+        <v>65.4643903421818</v>
       </c>
       <c r="D41" t="n">
-        <v>68.7876192029888</v>
+        <v>76.9631365638314</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>69.6665548296032</v>
+        <v>76.9962787140821</v>
       </c>
       <c r="C42" t="n">
-        <v>67.0799542803843</v>
+        <v>71.3255773772501</v>
       </c>
       <c r="D42" t="n">
-        <v>72.2531553788221</v>
+        <v>82.666980050914</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>72.5311106050605</v>
+        <v>44.9623695362666</v>
       </c>
       <c r="C43" t="n">
-        <v>66.2485665017016</v>
+        <v>34.9435947318987</v>
       </c>
       <c r="D43" t="n">
-        <v>78.8136547084194</v>
+        <v>54.9811443406344</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>71.2137634530066</v>
+        <v>77.3647293408491</v>
       </c>
       <c r="C44" t="n">
-        <v>65.4643903421818</v>
+        <v>70.4882200080317</v>
       </c>
       <c r="D44" t="n">
-        <v>76.9631365638314</v>
+        <v>84.2412386736664</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>76.9962787140821</v>
+        <v>66.1571537110524</v>
       </c>
       <c r="C45" t="n">
-        <v>71.3255773772501</v>
+        <v>59.8086496546993</v>
       </c>
       <c r="D45" t="n">
-        <v>82.666980050914</v>
+        <v>72.5056577674056</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>44.9623695362666</v>
+        <v>65.5119739559894</v>
       </c>
       <c r="C46" t="n">
-        <v>34.9435947318987</v>
+        <v>56.7571317883134</v>
       </c>
       <c r="D46" t="n">
-        <v>54.9811443406344</v>
+        <v>74.2668161236654</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>77.3647293408491</v>
+        <v>66.0462238932292</v>
       </c>
       <c r="C47" t="n">
-        <v>70.4882200080317</v>
+        <v>61.8309139135378</v>
       </c>
       <c r="D47" t="n">
-        <v>84.2412386736664</v>
+        <v>70.2615338729206</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>66.1571537110524</v>
+        <v>64.5349428026423</v>
       </c>
       <c r="C48" t="n">
-        <v>59.8086496546993</v>
+        <v>58.7581805343139</v>
       </c>
       <c r="D48" t="n">
-        <v>72.5056577674056</v>
+        <v>70.3117050709706</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>65.5119739559894</v>
+        <v>56.4471139916675</v>
       </c>
       <c r="C49" t="n">
-        <v>56.7571317883134</v>
+        <v>52.7089694101975</v>
       </c>
       <c r="D49" t="n">
-        <v>74.2668161236654</v>
+        <v>60.1852585731374</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>66.0462238932292</v>
+        <v>69.9265032188014</v>
       </c>
       <c r="C50" t="n">
-        <v>61.8309139135378</v>
+        <v>68.3095538268769</v>
       </c>
       <c r="D50" t="n">
-        <v>70.2615338729206</v>
+        <v>71.5434526107259</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1267,16 +1264,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>65.0096120734851</v>
+        <v>72.1413472052391</v>
       </c>
       <c r="C51" t="n">
-        <v>59.2888510346365</v>
+        <v>69.6781594092405</v>
       </c>
       <c r="D51" t="n">
-        <v>70.7303731123336</v>
+        <v>74.6045350012377</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1284,16 +1281,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>86.9268829131095</v>
+        <v>69.5116608460088</v>
       </c>
       <c r="C52" t="n">
-        <v>82.7994363602624</v>
+        <v>62.9573283151603</v>
       </c>
       <c r="D52" t="n">
-        <v>91.0543294659567</v>
+        <v>76.0659933768572</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1301,16 +1298,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>56.4471139916675</v>
+        <v>76.669867600639</v>
       </c>
       <c r="C53" t="n">
-        <v>52.7089694101975</v>
+        <v>71.6065064651151</v>
       </c>
       <c r="D53" t="n">
-        <v>60.1852585731374</v>
+        <v>81.7332287361629</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1318,152 +1315,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>69.9386659985672</v>
+        <v>81.607480500695</v>
       </c>
       <c r="C54" t="n">
-        <v>68.3222035283627</v>
+        <v>75.8704411128065</v>
       </c>
       <c r="D54" t="n">
-        <v>71.5551284687717</v>
+        <v>87.3445198885835</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>72.1413472052391</v>
+        <v>71.7546358372171</v>
       </c>
       <c r="C55" t="n">
-        <v>69.6781594092405</v>
+        <v>64.5110128519884</v>
       </c>
       <c r="D55" t="n">
-        <v>74.6045350012377</v>
+        <v>78.9982588224459</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>69.5116608460088</v>
+        <v>73.3404751909535</v>
       </c>
       <c r="C56" t="n">
-        <v>62.9573283151603</v>
+        <v>65.9571311121727</v>
       </c>
       <c r="D56" t="n">
-        <v>76.0659933768572</v>
+        <v>80.7238192697343</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>76.669867600639</v>
+        <v>60.2940699764367</v>
       </c>
       <c r="C57" t="n">
-        <v>71.6065064651151</v>
+        <v>54.0345140400979</v>
       </c>
       <c r="D57" t="n">
-        <v>81.7332287361629</v>
+        <v>66.5536259127755</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>81.607480500695</v>
+        <v>74.7720101818334</v>
       </c>
       <c r="C58" t="n">
-        <v>75.8704411128065</v>
+        <v>66.7572571600945</v>
       </c>
       <c r="D58" t="n">
-        <v>87.3445198885835</v>
+        <v>82.7867632035724</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>71.7546358372171</v>
+        <v>70.6887424543744</v>
       </c>
       <c r="C59" t="n">
-        <v>64.5110128519884</v>
+        <v>66.6619387248777</v>
       </c>
       <c r="D59" t="n">
-        <v>78.9982588224459</v>
+        <v>74.715546183871</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>73.3404751909535</v>
+        <v>59.7952165057466</v>
       </c>
       <c r="C60" t="n">
-        <v>65.9571311121727</v>
+        <v>53.8443856057475</v>
       </c>
       <c r="D60" t="n">
-        <v>80.7238192697343</v>
+        <v>65.7460474057456</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>60.2940699764367</v>
+        <v>62.931055719428</v>
       </c>
       <c r="C61" t="n">
-        <v>54.0345140400979</v>
+        <v>59.6052390087678</v>
       </c>
       <c r="D61" t="n">
-        <v>66.5536259127755</v>
+        <v>66.2568724300882</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>74.7720101818334</v>
+        <v>63.5216839074605</v>
       </c>
       <c r="C62" t="n">
-        <v>66.7572571600945</v>
+        <v>61.8018295325929</v>
       </c>
       <c r="D62" t="n">
-        <v>82.7867632035724</v>
+        <v>65.241538282328</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1471,16 +1468,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>70.6887424543744</v>
+        <v>67.3481808319863</v>
       </c>
       <c r="C63" t="n">
-        <v>66.6619387248777</v>
+        <v>64.6990502482674</v>
       </c>
       <c r="D63" t="n">
-        <v>74.715546183871</v>
+        <v>69.9973114157052</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>59.9824817326242</v>
+        <v>61.6517882070384</v>
       </c>
       <c r="C64" t="n">
-        <v>54.0493281813875</v>
+        <v>54.8274635012244</v>
       </c>
       <c r="D64" t="n">
-        <v>65.9156352838609</v>
+        <v>68.4761129128525</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1505,16 +1502,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B65" t="n">
-        <v>90.2500167508645</v>
+        <v>66.3574699020839</v>
       </c>
       <c r="C65" t="n">
-        <v>86.5835391152729</v>
+        <v>60.5978872217525</v>
       </c>
       <c r="D65" t="n">
-        <v>93.9164943864561</v>
+        <v>72.1170525824154</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1522,16 +1519,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>62.931055719428</v>
+        <v>80.3679928025395</v>
       </c>
       <c r="C66" t="n">
-        <v>59.6052390087678</v>
+        <v>74.5550595199882</v>
       </c>
       <c r="D66" t="n">
-        <v>66.2568724300882</v>
+        <v>86.1809260850908</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1539,223 +1536,121 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>63.5261912273936</v>
+        <v>55.5068408144557</v>
       </c>
       <c r="C67" t="n">
-        <v>61.8067176753898</v>
+        <v>46.5879499902417</v>
       </c>
       <c r="D67" t="n">
-        <v>65.2456647793974</v>
+        <v>64.4257316386698</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>67.3481808319863</v>
+        <v>75.7028075570561</v>
       </c>
       <c r="C68" t="n">
-        <v>64.6990502482674</v>
+        <v>68.9992065445205</v>
       </c>
       <c r="D68" t="n">
-        <v>69.9973114157052</v>
+        <v>82.4064085695917</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>61.6517882070384</v>
+        <v>66.3276502237063</v>
       </c>
       <c r="C69" t="n">
-        <v>54.8274635012244</v>
+        <v>59.2780379715418</v>
       </c>
       <c r="D69" t="n">
-        <v>68.4761129128525</v>
+        <v>73.3772624758709</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>66.3574699020839</v>
+        <v>61.3698301112097</v>
       </c>
       <c r="C70" t="n">
-        <v>60.5978872217525</v>
+        <v>52.499183200304</v>
       </c>
       <c r="D70" t="n">
-        <v>72.1170525824154</v>
+        <v>70.2404770221153</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>80.3679928025395</v>
+        <v>62.0796236082796</v>
       </c>
       <c r="C71" t="n">
-        <v>74.5550595199882</v>
+        <v>57.8809984969625</v>
       </c>
       <c r="D71" t="n">
-        <v>86.1809260850908</v>
+        <v>66.2782487195967</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>55.5068408144557</v>
+        <v>53.6645449465104</v>
       </c>
       <c r="C72" t="n">
-        <v>46.5879499902417</v>
+        <v>47.5525025381844</v>
       </c>
       <c r="D72" t="n">
-        <v>64.4257316386698</v>
+        <v>59.7765873548364</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>75.7028075570561</v>
+        <v>54.5472800947686</v>
       </c>
       <c r="C73" t="n">
-        <v>68.9992065445205</v>
+        <v>51.068438000582</v>
       </c>
       <c r="D73" t="n">
-        <v>82.4064085695917</v>
+        <v>58.0261221889552</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="n">
-        <v>66.3276502237063</v>
-      </c>
-      <c r="C74" t="n">
-        <v>59.2780379715418</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73.3772624758709</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" t="n">
-        <v>61.3698301112097</v>
-      </c>
-      <c r="C75" t="n">
-        <v>52.499183200304</v>
-      </c>
-      <c r="D75" t="n">
-        <v>70.2404770221153</v>
-      </c>
-      <c r="E75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="n">
-        <v>62.0796236082796</v>
-      </c>
-      <c r="C76" t="n">
-        <v>57.8809984969625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>66.2782487195967</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" t="n">
-        <v>53.7620885060961</v>
-      </c>
-      <c r="C77" t="n">
-        <v>47.6649191988101</v>
-      </c>
-      <c r="D77" t="n">
-        <v>59.8592578133821</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" t="n">
-        <v>86.738133326359</v>
-      </c>
-      <c r="C78" t="n">
-        <v>82.4998041200541</v>
-      </c>
-      <c r="D78" t="n">
-        <v>90.9764625326639</v>
-      </c>
-      <c r="E78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="n">
-        <v>54.5472800947686</v>
-      </c>
-      <c r="C79" t="n">
-        <v>51.068438000582</v>
-      </c>
-      <c r="D79" t="n">
-        <v>58.0261221889552</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
@@ -71,16 +71,24 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
+Other members: Global South + EU 
+(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
+Global South + China 
+(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High** 
+Global South + China + EU + various HICs 
+(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
+Global South + China + EU + various HICs 
++ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -434,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.7141238034429</v>
+        <v>67.6970977479236</v>
       </c>
       <c r="C2" t="n">
-        <v>66.3199823934184</v>
+        <v>66.3023963959884</v>
       </c>
       <c r="D2" t="n">
-        <v>69.1082652134675</v>
+        <v>69.0917990998588</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -604,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>73.7408625356203</v>
+        <v>73.6179977793817</v>
       </c>
       <c r="C12" t="n">
-        <v>69.8372337831187</v>
+        <v>69.6993485561823</v>
       </c>
       <c r="D12" t="n">
-        <v>77.644491288122</v>
+        <v>77.536647002581</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -638,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>57.1493326995844</v>
+        <v>57.1528754247366</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2639971508514</v>
+        <v>56.2673732215499</v>
       </c>
       <c r="D14" t="n">
-        <v>58.0346682483174</v>
+        <v>58.0383776279233</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -808,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>49.0485989036895</v>
+        <v>49.0525173251567</v>
       </c>
       <c r="C24" t="n">
-        <v>45.9501848091362</v>
+        <v>45.9466877611121</v>
       </c>
       <c r="D24" t="n">
-        <v>52.1470129982428</v>
+        <v>52.1583468892013</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1046,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>67.0368601571222</v>
+        <v>67.0197929692514</v>
       </c>
       <c r="C38" t="n">
-        <v>65.3252960128017</v>
+        <v>65.3075604359723</v>
       </c>
       <c r="D38" t="n">
-        <v>68.7484243014427</v>
+        <v>68.7320255025304</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1216,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>64.5349428026423</v>
+        <v>64.3326161149391</v>
       </c>
       <c r="C48" t="n">
-        <v>58.7581805343139</v>
+        <v>58.5319321064818</v>
       </c>
       <c r="D48" t="n">
-        <v>70.3117050709706</v>
+        <v>70.1333001233965</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1250,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>69.9265032188014</v>
+        <v>69.9117027281215</v>
       </c>
       <c r="C50" t="n">
-        <v>68.3095538268769</v>
+        <v>68.2941286055139</v>
       </c>
       <c r="D50" t="n">
-        <v>71.5434526107259</v>
+        <v>71.529276850729</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1420,13 +1428,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>59.7952165057466</v>
+        <v>59.5603805397135</v>
       </c>
       <c r="C60" t="n">
-        <v>53.8443856057475</v>
+        <v>53.586463176426</v>
       </c>
       <c r="D60" t="n">
-        <v>65.7460474057456</v>
+        <v>65.5342979030011</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1454,13 +1462,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>63.5216839074605</v>
+        <v>63.5326678113447</v>
       </c>
       <c r="C62" t="n">
-        <v>61.8018295325929</v>
+        <v>61.8124249135943</v>
       </c>
       <c r="D62" t="n">
-        <v>65.241538282328</v>
+        <v>65.2529107090951</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1624,13 +1632,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>53.6645449465104</v>
+        <v>53.7266999164565</v>
       </c>
       <c r="C72" t="n">
-        <v>47.5525025381844</v>
+        <v>47.5942502637921</v>
       </c>
       <c r="D72" t="n">
-        <v>59.7765873548364</v>
+        <v>59.8591495691209</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
@@ -71,24 +71,16 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
-Other members: Global South + EU 
-(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
-Global South + China 
-(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High** 
-Global South + China + EU + various HICs 
-(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
-Global South + China + EU + various HICs 
-+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -442,13 +434,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.6970977479236</v>
+        <v>67.7141238034429</v>
       </c>
       <c r="C2" t="n">
-        <v>66.3023963959884</v>
+        <v>66.3199823934184</v>
       </c>
       <c r="D2" t="n">
-        <v>69.0917990998588</v>
+        <v>69.1082652134675</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -612,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>73.6179977793817</v>
+        <v>73.7408625356203</v>
       </c>
       <c r="C12" t="n">
-        <v>69.6993485561823</v>
+        <v>69.8372337831187</v>
       </c>
       <c r="D12" t="n">
-        <v>77.536647002581</v>
+        <v>77.644491288122</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -646,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>57.1528754247366</v>
+        <v>57.1493326995844</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2673732215499</v>
+        <v>56.2639971508514</v>
       </c>
       <c r="D14" t="n">
-        <v>58.0383776279233</v>
+        <v>58.0346682483174</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -816,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>49.0525173251567</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="C24" t="n">
-        <v>45.9466877611121</v>
+        <v>45.9501848091362</v>
       </c>
       <c r="D24" t="n">
-        <v>52.1583468892013</v>
+        <v>52.1470129982428</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1054,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>67.0197929692514</v>
+        <v>67.0368601571222</v>
       </c>
       <c r="C38" t="n">
-        <v>65.3075604359723</v>
+        <v>65.3252960128017</v>
       </c>
       <c r="D38" t="n">
-        <v>68.7320255025304</v>
+        <v>68.7484243014427</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1224,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>64.3326161149391</v>
+        <v>64.5349428026423</v>
       </c>
       <c r="C48" t="n">
-        <v>58.5319321064818</v>
+        <v>58.7581805343139</v>
       </c>
       <c r="D48" t="n">
-        <v>70.1333001233965</v>
+        <v>70.3117050709706</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1258,13 +1250,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>69.9117027281215</v>
+        <v>69.9265032188014</v>
       </c>
       <c r="C50" t="n">
-        <v>68.2941286055139</v>
+        <v>68.3095538268769</v>
       </c>
       <c r="D50" t="n">
-        <v>71.529276850729</v>
+        <v>71.5434526107259</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1428,13 +1420,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>59.5603805397135</v>
+        <v>59.7952165057466</v>
       </c>
       <c r="C60" t="n">
-        <v>53.586463176426</v>
+        <v>53.8443856057475</v>
       </c>
       <c r="D60" t="n">
-        <v>65.5342979030011</v>
+        <v>65.7460474057456</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1462,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>63.5326678113447</v>
+        <v>63.5216839074605</v>
       </c>
       <c r="C62" t="n">
-        <v>61.8124249135943</v>
+        <v>61.8018295325929</v>
       </c>
       <c r="D62" t="n">
-        <v>65.2529107090951</v>
+        <v>65.241538282328</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1632,13 +1624,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>53.7266999164565</v>
+        <v>53.6645449465104</v>
       </c>
       <c r="C72" t="n">
-        <v>47.5942502637921</v>
+        <v>47.5525025381844</v>
       </c>
       <c r="D72" t="n">
-        <v>59.8591495691209</v>
+        <v>59.7765873548364</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>61.5641165476348</v>
+        <v>87.6159556077524</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5387567484484</v>
+        <v>84.6863938433658</v>
       </c>
       <c r="D13" t="n">
-        <v>64.5894763468211</v>
+        <v>90.545517372139</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>57.1493326995844</v>
+        <v>61.5641165476348</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2639971508514</v>
+        <v>58.5387567484484</v>
       </c>
       <c r="D14" t="n">
-        <v>58.0346682483174</v>
+        <v>64.5894763468211</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>61.2718315250945</v>
+        <v>57.1493326995844</v>
       </c>
       <c r="C15" t="n">
-        <v>59.9217220818615</v>
+        <v>56.2639971508514</v>
       </c>
       <c r="D15" t="n">
-        <v>62.6219409683275</v>
+        <v>58.0346682483174</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>60.5229639210431</v>
+        <v>61.2718315250945</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1311325324667</v>
+        <v>59.9217220818615</v>
       </c>
       <c r="D16" t="n">
-        <v>63.9147953096195</v>
+        <v>62.6219409683275</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>56.435025728565</v>
+        <v>60.5229639210431</v>
       </c>
       <c r="C17" t="n">
-        <v>53.4330926038147</v>
+        <v>57.1311325324667</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4369588533153</v>
+        <v>63.9147953096195</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>74.4489025556534</v>
+        <v>56.435025728565</v>
       </c>
       <c r="C18" t="n">
-        <v>71.3378414278401</v>
+        <v>53.4330926038147</v>
       </c>
       <c r="D18" t="n">
-        <v>77.5599636834666</v>
+        <v>59.4369588533153</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>50.6935542872362</v>
+        <v>74.4489025556534</v>
       </c>
       <c r="C19" t="n">
-        <v>46.3091660983591</v>
+        <v>71.3378414278401</v>
       </c>
       <c r="D19" t="n">
-        <v>55.0779424761133</v>
+        <v>77.5599636834666</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.1960152413415</v>
+        <v>50.6935542872362</v>
       </c>
       <c r="C20" t="n">
-        <v>64.4757824769946</v>
+        <v>46.3091660983591</v>
       </c>
       <c r="D20" t="n">
-        <v>71.9162480056884</v>
+        <v>55.0779424761133</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>57.5331257319554</v>
+        <v>68.1960152413415</v>
       </c>
       <c r="C21" t="n">
-        <v>54.1602118742019</v>
+        <v>64.4757824769946</v>
       </c>
       <c r="D21" t="n">
-        <v>60.9060395897089</v>
+        <v>71.9162480056884</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>61.0961351837521</v>
+        <v>57.5331257319554</v>
       </c>
       <c r="C22" t="n">
-        <v>56.6769147666724</v>
+        <v>54.1602118742019</v>
       </c>
       <c r="D22" t="n">
-        <v>65.5153556008318</v>
+        <v>60.9060395897089</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>53.5094088553599</v>
+        <v>61.0961351837521</v>
       </c>
       <c r="C23" t="n">
-        <v>51.3229600915886</v>
+        <v>56.6769147666724</v>
       </c>
       <c r="D23" t="n">
-        <v>55.6958576191312</v>
+        <v>65.5153556008318</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>49.0485989036895</v>
+        <v>53.5094088553599</v>
       </c>
       <c r="C24" t="n">
-        <v>45.9501848091362</v>
+        <v>51.3229600915886</v>
       </c>
       <c r="D24" t="n">
-        <v>52.1470129982428</v>
+        <v>55.6958576191312</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>46.2409748207505</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="C25" t="n">
-        <v>44.4565467719796</v>
+        <v>45.9501848091362</v>
       </c>
       <c r="D25" t="n">
-        <v>48.0254028695214</v>
+        <v>52.1470129982428</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>65.5718008202262</v>
+        <v>84.6428606188793</v>
       </c>
       <c r="C26" t="n">
-        <v>63.8708625481235</v>
+        <v>82.4071495544298</v>
       </c>
       <c r="D26" t="n">
-        <v>67.2727390923289</v>
+        <v>86.8785716833287</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>66.4568029277883</v>
+        <v>46.2409748207505</v>
       </c>
       <c r="C27" t="n">
-        <v>63.8947148531786</v>
+        <v>44.4565467719796</v>
       </c>
       <c r="D27" t="n">
-        <v>69.018891002398</v>
+        <v>48.0254028695214</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>70.6080094776538</v>
+        <v>65.5718008202262</v>
       </c>
       <c r="C28" t="n">
-        <v>64.5378436477979</v>
+        <v>63.8708625481235</v>
       </c>
       <c r="D28" t="n">
-        <v>76.6781753075097</v>
+        <v>67.2727390923289</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.1718364193115</v>
+        <v>66.4568029277883</v>
       </c>
       <c r="C29" t="n">
-        <v>56.4841567790445</v>
+        <v>63.8947148531786</v>
       </c>
       <c r="D29" t="n">
-        <v>67.8595160595785</v>
+        <v>69.018891002398</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>82.0729293563814</v>
+        <v>70.6080094776538</v>
       </c>
       <c r="C30" t="n">
-        <v>76.5582494117215</v>
+        <v>64.5378436477979</v>
       </c>
       <c r="D30" t="n">
-        <v>87.5876093010413</v>
+        <v>76.6781753075097</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>58.4933323459008</v>
+        <v>62.1718364193115</v>
       </c>
       <c r="C31" t="n">
-        <v>50.1555182032516</v>
+        <v>56.4841567790445</v>
       </c>
       <c r="D31" t="n">
-        <v>66.8311464885499</v>
+        <v>67.8595160595785</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>69.5763306606468</v>
+        <v>82.0729293563814</v>
       </c>
       <c r="C32" t="n">
-        <v>62.4634447024593</v>
+        <v>76.5582494117215</v>
       </c>
       <c r="D32" t="n">
-        <v>76.6892166188343</v>
+        <v>87.5876093010413</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>58.7415395197149</v>
+        <v>58.4933323459008</v>
       </c>
       <c r="C33" t="n">
-        <v>51.9400339783796</v>
+        <v>50.1555182032516</v>
       </c>
       <c r="D33" t="n">
-        <v>65.5430450610502</v>
+        <v>66.8311464885499</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>62.4584030022536</v>
+        <v>69.5763306606468</v>
       </c>
       <c r="C34" t="n">
-        <v>53.8271436275199</v>
+        <v>62.4634447024593</v>
       </c>
       <c r="D34" t="n">
-        <v>71.0896623769874</v>
+        <v>76.6892166188343</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>65.7855461090773</v>
+        <v>58.7415395197149</v>
       </c>
       <c r="C35" t="n">
-        <v>61.6450425806537</v>
+        <v>51.9400339783796</v>
       </c>
       <c r="D35" t="n">
-        <v>69.9260496375009</v>
+        <v>65.5430450610502</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>57.4177151942162</v>
+        <v>62.4584030022536</v>
       </c>
       <c r="C36" t="n">
-        <v>50.8793137207413</v>
+        <v>53.8271436275199</v>
       </c>
       <c r="D36" t="n">
-        <v>63.9561166676911</v>
+        <v>71.0896623769874</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>59.0506210487045</v>
+        <v>65.7855461090773</v>
       </c>
       <c r="C37" t="n">
-        <v>55.4662909796374</v>
+        <v>61.6450425806537</v>
       </c>
       <c r="D37" t="n">
-        <v>62.6349511177717</v>
+        <v>69.9260496375009</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>67.0368601571222</v>
+        <v>57.4177151942162</v>
       </c>
       <c r="C38" t="n">
-        <v>65.3252960128017</v>
+        <v>50.8793137207413</v>
       </c>
       <c r="D38" t="n">
-        <v>68.7484243014427</v>
+        <v>63.9561166676911</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>69.6665548296032</v>
+        <v>87.221912376435</v>
       </c>
       <c r="C39" t="n">
-        <v>67.0799542803843</v>
+        <v>83.0145179792185</v>
       </c>
       <c r="D39" t="n">
-        <v>72.2531553788221</v>
+        <v>91.4293067736515</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>72.5311106050605</v>
+        <v>59.0506210487045</v>
       </c>
       <c r="C40" t="n">
-        <v>66.2485665017016</v>
+        <v>55.4662909796374</v>
       </c>
       <c r="D40" t="n">
-        <v>78.8136547084194</v>
+        <v>62.6349511177717</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.2137634530066</v>
+        <v>67.0368601571222</v>
       </c>
       <c r="C41" t="n">
-        <v>65.4643903421818</v>
+        <v>65.3252960128017</v>
       </c>
       <c r="D41" t="n">
-        <v>76.9631365638314</v>
+        <v>68.7484243014427</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>76.9962787140821</v>
+        <v>69.6665548296032</v>
       </c>
       <c r="C42" t="n">
-        <v>71.3255773772501</v>
+        <v>67.0799542803843</v>
       </c>
       <c r="D42" t="n">
-        <v>82.666980050914</v>
+        <v>72.2531553788221</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>44.9623695362666</v>
+        <v>72.5311106050605</v>
       </c>
       <c r="C43" t="n">
-        <v>34.9435947318987</v>
+        <v>66.2485665017016</v>
       </c>
       <c r="D43" t="n">
-        <v>54.9811443406344</v>
+        <v>78.8136547084194</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>77.3647293408491</v>
+        <v>71.2137634530066</v>
       </c>
       <c r="C44" t="n">
-        <v>70.4882200080317</v>
+        <v>65.4643903421818</v>
       </c>
       <c r="D44" t="n">
-        <v>84.2412386736664</v>
+        <v>76.9631365638314</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>66.1571537110524</v>
+        <v>76.9962787140821</v>
       </c>
       <c r="C45" t="n">
-        <v>59.8086496546993</v>
+        <v>71.3255773772501</v>
       </c>
       <c r="D45" t="n">
-        <v>72.5056577674056</v>
+        <v>82.666980050914</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>65.5119739559894</v>
+        <v>44.9623695362666</v>
       </c>
       <c r="C46" t="n">
-        <v>56.7571317883134</v>
+        <v>34.9435947318987</v>
       </c>
       <c r="D46" t="n">
-        <v>74.2668161236654</v>
+        <v>54.9811443406344</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>66.0462238932292</v>
+        <v>77.3647293408491</v>
       </c>
       <c r="C47" t="n">
-        <v>61.8309139135378</v>
+        <v>70.4882200080317</v>
       </c>
       <c r="D47" t="n">
-        <v>70.2615338729206</v>
+        <v>84.2412386736664</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>64.5349428026423</v>
+        <v>66.1571537110524</v>
       </c>
       <c r="C48" t="n">
-        <v>58.7581805343139</v>
+        <v>59.8086496546993</v>
       </c>
       <c r="D48" t="n">
-        <v>70.3117050709706</v>
+        <v>72.5056577674056</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>56.4471139916675</v>
+        <v>65.5119739559894</v>
       </c>
       <c r="C49" t="n">
-        <v>52.7089694101975</v>
+        <v>56.7571317883134</v>
       </c>
       <c r="D49" t="n">
-        <v>60.1852585731374</v>
+        <v>74.2668161236654</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>69.9265032188014</v>
+        <v>66.0462238932292</v>
       </c>
       <c r="C50" t="n">
-        <v>68.3095538268769</v>
+        <v>61.8309139135378</v>
       </c>
       <c r="D50" t="n">
-        <v>71.5434526107259</v>
+        <v>70.2615338729206</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>72.1413472052391</v>
+        <v>64.5349428026423</v>
       </c>
       <c r="C51" t="n">
-        <v>69.6781594092405</v>
+        <v>58.7581805343139</v>
       </c>
       <c r="D51" t="n">
-        <v>74.6045350012377</v>
+        <v>70.3117050709706</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>69.5116608460088</v>
+        <v>86.9268829131095</v>
       </c>
       <c r="C52" t="n">
-        <v>62.9573283151603</v>
+        <v>82.7994363602624</v>
       </c>
       <c r="D52" t="n">
-        <v>76.0659933768572</v>
+        <v>91.0543294659567</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>76.669867600639</v>
+        <v>56.4471139916675</v>
       </c>
       <c r="C53" t="n">
-        <v>71.6065064651151</v>
+        <v>52.7089694101975</v>
       </c>
       <c r="D53" t="n">
-        <v>81.7332287361629</v>
+        <v>60.1852585731374</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>81.607480500695</v>
+        <v>69.9265032188014</v>
       </c>
       <c r="C54" t="n">
-        <v>75.8704411128065</v>
+        <v>68.3095538268769</v>
       </c>
       <c r="D54" t="n">
-        <v>87.3445198885835</v>
+        <v>71.5434526107259</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.7546358372171</v>
+        <v>72.1413472052391</v>
       </c>
       <c r="C55" t="n">
-        <v>64.5110128519884</v>
+        <v>69.6781594092405</v>
       </c>
       <c r="D55" t="n">
-        <v>78.9982588224459</v>
+        <v>74.6045350012377</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>73.3404751909535</v>
+        <v>69.5116608460088</v>
       </c>
       <c r="C56" t="n">
-        <v>65.9571311121727</v>
+        <v>62.9573283151603</v>
       </c>
       <c r="D56" t="n">
-        <v>80.7238192697343</v>
+        <v>76.0659933768572</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>60.2940699764367</v>
+        <v>76.669867600639</v>
       </c>
       <c r="C57" t="n">
-        <v>54.0345140400979</v>
+        <v>71.6065064651151</v>
       </c>
       <c r="D57" t="n">
-        <v>66.5536259127755</v>
+        <v>81.7332287361629</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.7720101818334</v>
+        <v>81.607480500695</v>
       </c>
       <c r="C58" t="n">
-        <v>66.7572571600945</v>
+        <v>75.8704411128065</v>
       </c>
       <c r="D58" t="n">
-        <v>82.7867632035724</v>
+        <v>87.3445198885835</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>70.6887424543744</v>
+        <v>71.7546358372171</v>
       </c>
       <c r="C59" t="n">
-        <v>66.6619387248777</v>
+        <v>64.5110128519884</v>
       </c>
       <c r="D59" t="n">
-        <v>74.715546183871</v>
+        <v>78.9982588224459</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>59.7952165057466</v>
+        <v>73.3404751909535</v>
       </c>
       <c r="C60" t="n">
-        <v>53.8443856057475</v>
+        <v>65.9571311121727</v>
       </c>
       <c r="D60" t="n">
-        <v>65.7460474057456</v>
+        <v>80.7238192697343</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>62.931055719428</v>
+        <v>60.2940699764367</v>
       </c>
       <c r="C61" t="n">
-        <v>59.6052390087678</v>
+        <v>54.0345140400979</v>
       </c>
       <c r="D61" t="n">
-        <v>66.2568724300882</v>
+        <v>66.5536259127755</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>63.5216839074605</v>
+        <v>74.7720101818334</v>
       </c>
       <c r="C62" t="n">
-        <v>61.8018295325929</v>
+        <v>66.7572571600945</v>
       </c>
       <c r="D62" t="n">
-        <v>65.241538282328</v>
+        <v>82.7867632035724</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>67.3481808319863</v>
+        <v>70.6887424543744</v>
       </c>
       <c r="C63" t="n">
-        <v>64.6990502482674</v>
+        <v>66.6619387248777</v>
       </c>
       <c r="D63" t="n">
-        <v>69.9973114157052</v>
+        <v>74.715546183871</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>61.6517882070384</v>
+        <v>59.7952165057466</v>
       </c>
       <c r="C64" t="n">
-        <v>54.8274635012244</v>
+        <v>53.8443856057475</v>
       </c>
       <c r="D64" t="n">
-        <v>68.4761129128525</v>
+        <v>65.7460474057456</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>66.3574699020839</v>
+        <v>90.2500167508645</v>
       </c>
       <c r="C65" t="n">
-        <v>60.5978872217525</v>
+        <v>86.5835391152729</v>
       </c>
       <c r="D65" t="n">
-        <v>72.1170525824154</v>
+        <v>93.9164943864561</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>80.3679928025395</v>
+        <v>62.931055719428</v>
       </c>
       <c r="C66" t="n">
-        <v>74.5550595199882</v>
+        <v>59.6052390087678</v>
       </c>
       <c r="D66" t="n">
-        <v>86.1809260850908</v>
+        <v>66.2568724300882</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>55.5068408144557</v>
+        <v>63.5216839074605</v>
       </c>
       <c r="C67" t="n">
-        <v>46.5879499902417</v>
+        <v>61.8018295325929</v>
       </c>
       <c r="D67" t="n">
-        <v>64.4257316386698</v>
+        <v>65.241538282328</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>75.7028075570561</v>
+        <v>67.3481808319863</v>
       </c>
       <c r="C68" t="n">
-        <v>68.9992065445205</v>
+        <v>64.6990502482674</v>
       </c>
       <c r="D68" t="n">
-        <v>82.4064085695917</v>
+        <v>69.9973114157052</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.3276502237063</v>
+        <v>61.6517882070384</v>
       </c>
       <c r="C69" t="n">
-        <v>59.2780379715418</v>
+        <v>54.8274635012244</v>
       </c>
       <c r="D69" t="n">
-        <v>73.3772624758709</v>
+        <v>68.4761129128525</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>61.3698301112097</v>
+        <v>66.3574699020839</v>
       </c>
       <c r="C70" t="n">
-        <v>52.499183200304</v>
+        <v>60.5978872217525</v>
       </c>
       <c r="D70" t="n">
-        <v>70.2404770221153</v>
+        <v>72.1170525824154</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>62.0796236082796</v>
+        <v>80.3679928025395</v>
       </c>
       <c r="C71" t="n">
-        <v>57.8809984969625</v>
+        <v>74.5550595199882</v>
       </c>
       <c r="D71" t="n">
-        <v>66.2782487195967</v>
+        <v>86.1809260850908</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>53.6645449465104</v>
+        <v>55.5068408144557</v>
       </c>
       <c r="C72" t="n">
-        <v>47.5525025381844</v>
+        <v>46.5879499902417</v>
       </c>
       <c r="D72" t="n">
-        <v>59.7765873548364</v>
+        <v>64.4257316386698</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>75.7028075570561</v>
+      </c>
+      <c r="C73" t="n">
+        <v>68.9992065445205</v>
+      </c>
+      <c r="D73" t="n">
+        <v>82.4064085695917</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.3276502237063</v>
+      </c>
+      <c r="C74" t="n">
+        <v>59.2780379715418</v>
+      </c>
+      <c r="D74" t="n">
+        <v>73.3772624758709</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>61.3698301112097</v>
+      </c>
+      <c r="C75" t="n">
+        <v>52.499183200304</v>
+      </c>
+      <c r="D75" t="n">
+        <v>70.2404770221153</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>62.0796236082796</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.8809984969625</v>
+      </c>
+      <c r="D76" t="n">
+        <v>66.2782487195967</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>53.6645449465104</v>
+      </c>
+      <c r="C77" t="n">
+        <v>47.5525025381844</v>
+      </c>
+      <c r="D77" t="n">
+        <v>59.7765873548364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B78" t="n">
+        <v>86.738133326359</v>
+      </c>
+      <c r="C78" t="n">
+        <v>82.4998041200541</v>
+      </c>
+      <c r="D78" t="n">
+        <v>90.9764625326639</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
         <v>54.5472800947686</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C79" t="n">
         <v>51.068438000582</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D79" t="n">
         <v>58.0261221889552</v>
       </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
